--- a/build decon plugin/testresults/spatialdecon_outputs.xlsx
+++ b/build decon plugin/testresults/spatialdecon_outputs.xlsx
@@ -20,15 +20,522 @@
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">AGBT CTA2.0 | 001 | PanCK-pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTA 2.0 | 001 | Geometric Segment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA 2.0 | 001 | PanCK-pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA2.0 | 001 | PanCK-neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA 2.0 | 001 | PanCK-neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTA 2.0 | 002 | Geometric Segment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA2.0 | 002 | PanCK-pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA 2.0 | 002 | PanCK-pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTA 2.0 | 003 | Geometric Segment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA2.0 | 002 | PanCK-neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA 2.0 | 002 | PanCK-neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTA 2.0 | 004 | Geometric Segment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA2.0 | 003 | PanCK-pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA 2.0 | 003 | PanCK-pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA2.0 | 003 | PanCK-neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA 2.0 | 003 | PanCK-neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA2.0 | 004 | PanCK-pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA 2.0 | 004 | PanCK-pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA2.0 | 004 | PanCK-neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA 2.0 | 004 | PanCK-neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA 2.0 | 005 | PanCK-pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA2.0 | 005 | PanCK-pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA2.0 | 005 | PanCK-neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTA 2.0 | 006 | Geometric Segment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA 2.0 | 005 | PanCK-neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA 2.0 | 006 | PanCK-pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTA 2.0 | 007 | Geometric Segment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA2.0 | 006 | PanCK-pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA2.0 | 006 | PanCK-neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA 2.0 | 006 | PanCK-neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTA 2.0 | 008 | Geometric Segment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA2.0 | 007 | PanCK-pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA 2.0 | 007 | PanCK-neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTA 2.0 | 009 | Geometric Segment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA2.0 | 007 | PanCK-neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA 2.0 | 008 | PanCK-pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTA 2.0 | 010 | Geometric Segment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA 2.0 | 008 | PanCK-neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA2.0 | 008 | PanCK-pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTA 2.0 | 011 | Geometric Segment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA2.0 | 008 | PanCK-neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTA 2.0 | 012 | Geometric Segment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA 2.0 | 009 | PanCK-pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTA 2.0 | 013 | Geometric Segment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA 2.0 | 009 | PanCK-neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA2.0 | 009 | PanCK-pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTA 2.0 | 014 | Geometric Segment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA2.0 | 009 | PanCK-neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA 2.0 | 010 | PanCK-pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTA 2.0 | 015 | Geometric Segment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA2.0 | 010 | PanCK-pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA 2.0 | 010 | PanCK-neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA 2.0 | 011 | PanCK-pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTA 2.0 | 016 | Geometric Segment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA2.0 | 011 | PanCK-pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA 2.0 | 011 | PanCK-neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA2.0 | 011 | PanCK-neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTA 2.0 | 017 | Geometric Segment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA 2.0 | 012 | PanCK-pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA2.0 | 012 | PanCK-pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTA 2.0 | 018 | Geometric Segment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTA 2.0 | 019 | Geometric Segment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA2.0 | 012 | PanCK-neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA 2.0 | 012 | PanCK-neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA2.0 | 013 | PanCK-pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTA 2.0 | 020 | Geometric Segment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA 2.0 | 013 | PanCK-pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA2.0 | 013 | PanCK-neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA 2.0 | 013 | PanCK-neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTA 2.0 | 021 | Geometric Segment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA2.0 | 014 | PanCK-pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA 2.0 | 014 | PanCK-pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTA 2.0 | 022 | Geometric Segment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA2.0 | 014 | PanCK-neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA 2.0 | 014 | PanCK-neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTA 2.0 | 023 | Geometric Segment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA 2.0 | 015 | PanCK-pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA2.0 | 015 | PanCK-pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTA 2.0 | 024 | Geometric Segment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA2.0 | 015 | PanCK-neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA 2.0 | 016 | PanCK-pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA 2.0 | 016 | PanCK-neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA2.0 | 016 | PanCK-pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA 2.0 | 017 | PanCK-pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA2.0 | 016 | PanCK-neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA 2.0 | 017 | PanCK-neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA2.0 | 017 | PanCK-pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA 2.0 | 018 | PanCK-pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA2.0 | 017 | PanCK-neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA 2.0 | 018 | PanCK-neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA2.0 | 018 | PanCK-pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA 2.0 | 019 | PanCK-pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA2.0 | 018 | PanCK-neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA 2.0 | 019 | PanCK-neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA2.0 | 019 | PanCK-pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA2.0 | 019 | PanCK-neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA 2.0 | 020 | PanCK-pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA 2.0 | 020 | PanCK-neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA2.0 | 020 | PanCK-pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA2.0 | 020 | PanCK-neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA 2.0 | 021 | PanCK-pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA 2.0 | 021 | PanCK-neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA2.0 | 021 | PanCK-pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA2.0 | 021 | PanCK-neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA 2.0 | 022 | PanCK-pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA 2.0 | 022 | PanCK-neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA2.0 | 022 | PanCK-neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA 2.0 | 023 | PanCK-pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA2.0 | 023 | PanCK-pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA 2.0 | 023 | PanCK-neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA2.0 | 023 | PanCK-neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA 2.0 | 024 | PanCK-pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA2.0 | 024 | PanCK-pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA 2.0 | 024 | PanCK-neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA2.0 | 024 | PanCK-neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">macrophages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.naive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plasma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T.CD4.naive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T.CD4.memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T.CD8.naive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T.CD8.memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pDCs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mDCs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monocytes.C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monocytes.NC.I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neutrophils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">endothelial.cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fibroblasts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">segmentID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SlideName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ScanName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROIName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SegmentName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PanCK-pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PanCK-neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AOIArea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AOINucleiCount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROICoordinateX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROICoordinateY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RawReads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AlignedReads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DeduplicatedReads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TrimmedReads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StitchedReads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SequencingSaturation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SequencingSetID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OvercountedProbes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scan_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROI_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FakeGroup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">segmentDisplayName</t>
+  </si>
+  <si>
     <t xml:space="preserve">84333dd1-1ac6-451e-8a50-af15b9596bad</t>
   </si>
   <si>
+    <t xml:space="preserve">CRC 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nb552257:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
     <t xml:space="preserve">7a0f0615-8c40-41f9-9c53-9faacddedc2c</t>
   </si>
   <si>
+    <t xml:space="preserve">CPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTA 2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geometric Segment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
     <t xml:space="preserve">6fc6ab9f-9a9b-4c0c-b937-99f8d08a6523</t>
   </si>
   <si>
+    <t xml:space="preserve">CRC 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGBT CTA 2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
     <t xml:space="preserve">88842cf3-29e9-454e-8ba0-03b49f60da18</t>
   </si>
   <si>
@@ -38,6 +545,9 @@
     <t xml:space="preserve">c6284ca0-1bf9-4edb-9a40-a5a52c09a92b</t>
   </si>
   <si>
+    <t xml:space="preserve">002</t>
+  </si>
+  <si>
     <t xml:space="preserve">efb99699-0934-4f15-a64e-af1fe263faeb</t>
   </si>
   <si>
@@ -47,6 +557,9 @@
     <t xml:space="preserve">a60f825a-653d-41f4-a367-42740c8dda8e</t>
   </si>
   <si>
+    <t xml:space="preserve">003</t>
+  </si>
+  <si>
     <t xml:space="preserve">966624b3-9e28-4e71-865b-791838f0dfd5</t>
   </si>
   <si>
@@ -56,6 +569,9 @@
     <t xml:space="preserve">0442c425-c016-466e-b402-689880b8af24</t>
   </si>
   <si>
+    <t xml:space="preserve">004</t>
+  </si>
+  <si>
     <t xml:space="preserve">37891a29-6df6-4819-91d3-d2942c8fa7dd</t>
   </si>
   <si>
@@ -83,6 +599,9 @@
     <t xml:space="preserve">7f1f7d4a-5145-4043-bccb-f5a3a0d32ef8</t>
   </si>
   <si>
+    <t xml:space="preserve">005</t>
+  </si>
+  <si>
     <t xml:space="preserve">986a3282-cfe1-4762-8a0d-16e72a5b1c11</t>
   </si>
   <si>
@@ -92,6 +611,9 @@
     <t xml:space="preserve">74d13a34-edd1-4744-b31c-26e88c6c7800</t>
   </si>
   <si>
+    <t xml:space="preserve">006</t>
+  </si>
+  <si>
     <t xml:space="preserve">4a391062-4c89-4bfb-be98-d5b080ac8f34</t>
   </si>
   <si>
@@ -101,6 +623,9 @@
     <t xml:space="preserve">c48aa157-6f87-434b-bf71-5ef15c7d0507</t>
   </si>
   <si>
+    <t xml:space="preserve">007</t>
+  </si>
+  <si>
     <t xml:space="preserve">e9867027-535c-491f-a935-6b931e1a84f9</t>
   </si>
   <si>
@@ -113,6 +638,9 @@
     <t xml:space="preserve">70690cb2-7187-4da6-a013-330390578dec</t>
   </si>
   <si>
+    <t xml:space="preserve">008</t>
+  </si>
+  <si>
     <t xml:space="preserve">8a3c9bd5-d777-4e4f-97d2-b56731ff2a57</t>
   </si>
   <si>
@@ -122,6 +650,9 @@
     <t xml:space="preserve">a815d832-4aa2-41b8-b6c0-c57bab8831b7</t>
   </si>
   <si>
+    <t xml:space="preserve">009</t>
+  </si>
+  <si>
     <t xml:space="preserve">ff9f1241-72f9-4085-8c7c-0614ee8d9717</t>
   </si>
   <si>
@@ -131,6 +662,9 @@
     <t xml:space="preserve">c3cf702d-dc80-4a90-ae1f-0ffbebe1d119</t>
   </si>
   <si>
+    <t xml:space="preserve">010</t>
+  </si>
+  <si>
     <t xml:space="preserve">0cb39b37-ca40-44a1-9fce-2a465dc88197</t>
   </si>
   <si>
@@ -140,18 +674,27 @@
     <t xml:space="preserve">1715a344-ee04-485a-b6f7-c11c028888e2</t>
   </si>
   <si>
+    <t xml:space="preserve">011</t>
+  </si>
+  <si>
     <t xml:space="preserve">c5076504-bf36-4131-9d6f-bd831a8ed084</t>
   </si>
   <si>
     <t xml:space="preserve">65f1f0b1-dba4-49c0-b474-0b409d3cc5c7</t>
   </si>
   <si>
+    <t xml:space="preserve">012</t>
+  </si>
+  <si>
     <t xml:space="preserve">1144d955-b14c-4f85-92e0-1f9ea7f7b33d</t>
   </si>
   <si>
     <t xml:space="preserve">e0ff6c93-ac76-4cfa-b5c7-83ffb4bcd312</t>
   </si>
   <si>
+    <t xml:space="preserve">013</t>
+  </si>
+  <si>
     <t xml:space="preserve">36afcda3-2dfb-44d3-be42-8d91754782a9</t>
   </si>
   <si>
@@ -161,6 +704,9 @@
     <t xml:space="preserve">3c6bb587-f73a-4f96-ade3-1f06551c93b7</t>
   </si>
   <si>
+    <t xml:space="preserve">014</t>
+  </si>
+  <si>
     <t xml:space="preserve">a314f0c1-818d-437f-8a63-27b237a8ce68</t>
   </si>
   <si>
@@ -170,6 +716,9 @@
     <t xml:space="preserve">a3b55d2b-103c-4b6f-bd2d-0de7855cc5ab</t>
   </si>
   <si>
+    <t xml:space="preserve">015</t>
+  </si>
+  <si>
     <t xml:space="preserve">df86de2d-f5a2-4a76-80e1-d1374a4bc532</t>
   </si>
   <si>
@@ -182,6 +731,9 @@
     <t xml:space="preserve">00aa0786-d768-44b3-bcd4-90f95f002d1e</t>
   </si>
   <si>
+    <t xml:space="preserve">016</t>
+  </si>
+  <si>
     <t xml:space="preserve">65e32d07-c712-4858-904b-cfe85e739b18</t>
   </si>
   <si>
@@ -194,6 +746,9 @@
     <t xml:space="preserve">bdf802a5-42a5-49f9-b137-17b93f5bcc6e</t>
   </si>
   <si>
+    <t xml:space="preserve">017</t>
+  </si>
+  <si>
     <t xml:space="preserve">ac6c9974-23db-49d3-bbf5-f34ef1546312</t>
   </si>
   <si>
@@ -203,9 +758,15 @@
     <t xml:space="preserve">b2a0871b-311f-47c4-b08e-0b8288ba489f</t>
   </si>
   <si>
+    <t xml:space="preserve">018</t>
+  </si>
+  <si>
     <t xml:space="preserve">03c062ce-2d14-485c-99ca-6843f5aaab2b</t>
   </si>
   <si>
+    <t xml:space="preserve">019</t>
+  </si>
+  <si>
     <t xml:space="preserve">a7ecf507-2fdc-476e-8113-d7248eaad54c</t>
   </si>
   <si>
@@ -218,6 +779,9 @@
     <t xml:space="preserve">fb91e76d-9027-43f0-94e3-de68dd183002</t>
   </si>
   <si>
+    <t xml:space="preserve">020</t>
+  </si>
+  <si>
     <t xml:space="preserve">cc4f73c1-abf9-4f46-b815-3b17ea97dc8c</t>
   </si>
   <si>
@@ -230,6 +794,9 @@
     <t xml:space="preserve">cd77398c-cd7b-46df-8812-6a0070aebe8a</t>
   </si>
   <si>
+    <t xml:space="preserve">021</t>
+  </si>
+  <si>
     <t xml:space="preserve">58862c76-d57a-4c93-9f31-b418e9892f78</t>
   </si>
   <si>
@@ -239,6 +806,9 @@
     <t xml:space="preserve">63935133-a4e2-4061-aaf8-2499b2e11b78</t>
   </si>
   <si>
+    <t xml:space="preserve">022</t>
+  </si>
+  <si>
     <t xml:space="preserve">a150fef7-72a2-492d-b24e-a3f92fc7fb6e</t>
   </si>
   <si>
@@ -248,6 +818,9 @@
     <t xml:space="preserve">1cdf8c19-34fe-487a-af1a-b5fcf5c49023</t>
   </si>
   <si>
+    <t xml:space="preserve">023</t>
+  </si>
+  <si>
     <t xml:space="preserve">7414a087-4fe7-4e18-82ed-d360f6895c8b</t>
   </si>
   <si>
@@ -257,6 +830,9 @@
     <t xml:space="preserve">b78450dd-1b30-4ba3-a46e-c9eced93dee1</t>
   </si>
   <si>
+    <t xml:space="preserve">024</t>
+  </si>
+  <si>
     <t xml:space="preserve">b0c2cc1f-1ef6-4808-a969-af88d9d3912c</t>
   </si>
   <si>
@@ -363,582 +939,6 @@
   </si>
   <si>
     <t xml:space="preserve">313de5af-251b-4500-90a3-cfce7e849e00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">macrophages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.naive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plasma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T.CD4.naive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T.CD4.memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T.CD8.naive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T.CD8.memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pDCs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mDCs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">monocytes.C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">monocytes.NC.I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neutrophils</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">endothelial.cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fibroblasts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">segmentID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SlideName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ScanName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROIName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SegmentName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PanCK-pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PanCK-neg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AOIArea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AOINucleiCount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROICoordinateX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROICoordinateY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RawReads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AlignedReads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeduplicatedReads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TrimmedReads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StitchedReads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SequencingSaturation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SequencingSetID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OvercountedProbes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scan_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROI_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FakeGroup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">segmentDisplayName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRC 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA2.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nb552257:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA2.0 | 001 | PanCK-pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTA 2.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geometric Segment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTA 2.0 | 001 | Geometric Segment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRC 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA 2.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA 2.0 | 001 | PanCK-pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA2.0 | 001 | PanCK-neg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA 2.0 | 001 | PanCK-neg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTA 2.0 | 002 | Geometric Segment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA2.0 | 002 | PanCK-pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA 2.0 | 002 | PanCK-pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTA 2.0 | 003 | Geometric Segment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA2.0 | 002 | PanCK-neg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA 2.0 | 002 | PanCK-neg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTA 2.0 | 004 | Geometric Segment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA2.0 | 003 | PanCK-pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA 2.0 | 003 | PanCK-pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA2.0 | 003 | PanCK-neg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA 2.0 | 003 | PanCK-neg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA2.0 | 004 | PanCK-pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA 2.0 | 004 | PanCK-pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA2.0 | 004 | PanCK-neg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA 2.0 | 004 | PanCK-neg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA 2.0 | 005 | PanCK-pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA2.0 | 005 | PanCK-pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA2.0 | 005 | PanCK-neg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTA 2.0 | 006 | Geometric Segment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA 2.0 | 005 | PanCK-neg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA 2.0 | 006 | PanCK-pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTA 2.0 | 007 | Geometric Segment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA2.0 | 006 | PanCK-pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA2.0 | 006 | PanCK-neg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA 2.0 | 006 | PanCK-neg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTA 2.0 | 008 | Geometric Segment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA2.0 | 007 | PanCK-pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA 2.0 | 007 | PanCK-neg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTA 2.0 | 009 | Geometric Segment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA2.0 | 007 | PanCK-neg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA 2.0 | 008 | PanCK-pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTA 2.0 | 010 | Geometric Segment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA 2.0 | 008 | PanCK-neg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA2.0 | 008 | PanCK-pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTA 2.0 | 011 | Geometric Segment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA2.0 | 008 | PanCK-neg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTA 2.0 | 012 | Geometric Segment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA 2.0 | 009 | PanCK-pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTA 2.0 | 013 | Geometric Segment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA 2.0 | 009 | PanCK-neg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA2.0 | 009 | PanCK-pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTA 2.0 | 014 | Geometric Segment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA2.0 | 009 | PanCK-neg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA 2.0 | 010 | PanCK-pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTA 2.0 | 015 | Geometric Segment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA2.0 | 010 | PanCK-pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA 2.0 | 010 | PanCK-neg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA 2.0 | 011 | PanCK-pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTA 2.0 | 016 | Geometric Segment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA2.0 | 011 | PanCK-pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA 2.0 | 011 | PanCK-neg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA2.0 | 011 | PanCK-neg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTA 2.0 | 017 | Geometric Segment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA 2.0 | 012 | PanCK-pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA2.0 | 012 | PanCK-pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTA 2.0 | 018 | Geometric Segment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTA 2.0 | 019 | Geometric Segment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA2.0 | 012 | PanCK-neg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA 2.0 | 012 | PanCK-neg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA2.0 | 013 | PanCK-pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTA 2.0 | 020 | Geometric Segment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA 2.0 | 013 | PanCK-pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA2.0 | 013 | PanCK-neg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA 2.0 | 013 | PanCK-neg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTA 2.0 | 021 | Geometric Segment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA2.0 | 014 | PanCK-pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA 2.0 | 014 | PanCK-pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTA 2.0 | 022 | Geometric Segment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA2.0 | 014 | PanCK-neg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA 2.0 | 014 | PanCK-neg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTA 2.0 | 023 | Geometric Segment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA 2.0 | 015 | PanCK-pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA2.0 | 015 | PanCK-pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTA 2.0 | 024 | Geometric Segment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA2.0 | 015 | PanCK-neg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA 2.0 | 016 | PanCK-pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA 2.0 | 016 | PanCK-neg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA2.0 | 016 | PanCK-pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA 2.0 | 017 | PanCK-pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA2.0 | 016 | PanCK-neg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA 2.0 | 017 | PanCK-neg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA2.0 | 017 | PanCK-pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA 2.0 | 018 | PanCK-pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA2.0 | 017 | PanCK-neg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA 2.0 | 018 | PanCK-neg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA2.0 | 018 | PanCK-pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA 2.0 | 019 | PanCK-pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA2.0 | 018 | PanCK-neg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA 2.0 | 019 | PanCK-neg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA2.0 | 019 | PanCK-pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA2.0 | 019 | PanCK-neg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA 2.0 | 020 | PanCK-pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA 2.0 | 020 | PanCK-neg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA2.0 | 020 | PanCK-pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA2.0 | 020 | PanCK-neg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA 2.0 | 021 | PanCK-pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA 2.0 | 021 | PanCK-neg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA2.0 | 021 | PanCK-pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA2.0 | 021 | PanCK-neg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA 2.0 | 022 | PanCK-pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA 2.0 | 022 | PanCK-neg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA2.0 | 022 | PanCK-neg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA 2.0 | 023 | PanCK-pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA2.0 | 023 | PanCK-pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA 2.0 | 023 | PanCK-neg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA2.0 | 023 | PanCK-neg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA 2.0 | 024 | PanCK-pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA2.0 | 024 | PanCK-pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA 2.0 | 024 | PanCK-neg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGBT CTA2.0 | 024 | PanCK-neg</t>
   </si>
 </sst>
 </file>
@@ -21335,16 +21335,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E2" t="s">
         <v>139</v>
@@ -21382,39 +21382,39 @@
         <v>75.8278633707905</v>
       </c>
       <c r="R2" t="s">
+        <v>161</v>
+      </c>
+      <c r="S2" t="s">
+        <v>162</v>
+      </c>
+      <c r="T2" t="s">
+        <v>159</v>
+      </c>
+      <c r="U2" t="s">
         <v>160</v>
       </c>
-      <c r="S2" t="s">
-        <v>161</v>
-      </c>
-      <c r="T2" t="s">
-        <v>158</v>
-      </c>
-      <c r="U2" t="s">
-        <v>159</v>
-      </c>
       <c r="V2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W2" t="s">
-        <v>163</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>164</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -21449,36 +21449,36 @@
         <v>38.9751195405093</v>
       </c>
       <c r="R3" t="s">
+        <v>161</v>
+      </c>
+      <c r="S3" t="s">
+        <v>162</v>
+      </c>
+      <c r="T3" t="s">
+        <v>166</v>
+      </c>
+      <c r="U3" t="s">
         <v>160</v>
       </c>
-      <c r="S3" t="s">
-        <v>161</v>
-      </c>
-      <c r="T3" t="s">
-        <v>165</v>
-      </c>
-      <c r="U3" t="s">
-        <v>159</v>
-      </c>
       <c r="V3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W3" t="s">
-        <v>168</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>169</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E4" t="s">
         <v>139</v>
@@ -21516,36 +21516,36 @@
         <v>68.4538865789536</v>
       </c>
       <c r="R4" t="s">
+        <v>161</v>
+      </c>
+      <c r="S4" t="s">
+        <v>162</v>
+      </c>
+      <c r="T4" t="s">
+        <v>171</v>
+      </c>
+      <c r="U4" t="s">
         <v>160</v>
       </c>
-      <c r="S4" t="s">
-        <v>161</v>
-      </c>
-      <c r="T4" t="s">
-        <v>170</v>
-      </c>
-      <c r="U4" t="s">
-        <v>159</v>
-      </c>
       <c r="V4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W4" t="s">
-        <v>172</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E5" t="s">
         <v>140</v>
@@ -21583,36 +21583,36 @@
         <v>74.8617732188732</v>
       </c>
       <c r="R5" t="s">
+        <v>161</v>
+      </c>
+      <c r="S5" t="s">
+        <v>162</v>
+      </c>
+      <c r="T5" t="s">
+        <v>159</v>
+      </c>
+      <c r="U5" t="s">
         <v>160</v>
       </c>
-      <c r="S5" t="s">
-        <v>161</v>
-      </c>
-      <c r="T5" t="s">
-        <v>158</v>
-      </c>
-      <c r="U5" t="s">
-        <v>159</v>
-      </c>
       <c r="V5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W5" t="s">
-        <v>173</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>174</v>
       </c>
       <c r="B6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E6" t="s">
         <v>140</v>
@@ -21650,39 +21650,39 @@
         <v>75.9048155597907</v>
       </c>
       <c r="R6" t="s">
+        <v>161</v>
+      </c>
+      <c r="S6" t="s">
+        <v>162</v>
+      </c>
+      <c r="T6" t="s">
+        <v>171</v>
+      </c>
+      <c r="U6" t="s">
         <v>160</v>
       </c>
-      <c r="S6" t="s">
-        <v>161</v>
-      </c>
-      <c r="T6" t="s">
-        <v>170</v>
-      </c>
-      <c r="U6" t="s">
-        <v>159</v>
-      </c>
       <c r="V6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W6" t="s">
-        <v>174</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>175</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -21717,36 +21717,36 @@
         <v>42.0686339659427</v>
       </c>
       <c r="R7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="V7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W7" t="s">
-        <v>176</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>177</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E8" t="s">
         <v>139</v>
@@ -21784,36 +21784,36 @@
         <v>75.7775272865009</v>
       </c>
       <c r="R8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="V8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W8" t="s">
-        <v>177</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>178</v>
       </c>
       <c r="B9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E9" t="s">
         <v>139</v>
@@ -21851,39 +21851,39 @@
         <v>75.5866446190571</v>
       </c>
       <c r="R9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="V9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W9" t="s">
-        <v>178</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>179</v>
       </c>
       <c r="B10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -21918,36 +21918,36 @@
         <v>42.0546369672882</v>
       </c>
       <c r="R10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="V10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W10" t="s">
-        <v>180</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>181</v>
       </c>
       <c r="B11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E11" t="s">
         <v>140</v>
@@ -21985,36 +21985,36 @@
         <v>74.7704372077154</v>
       </c>
       <c r="R11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="V11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W11" t="s">
-        <v>181</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>182</v>
       </c>
       <c r="B12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E12" t="s">
         <v>140</v>
@@ -22052,39 +22052,39 @@
         <v>75.5321084227761</v>
       </c>
       <c r="R12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="V12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W12" t="s">
-        <v>182</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>183</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -22119,36 +22119,36 @@
         <v>43.5423140306143</v>
       </c>
       <c r="R13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="V13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W13" t="s">
-        <v>184</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E14" t="s">
         <v>139</v>
@@ -22186,36 +22186,36 @@
         <v>75.019456688383</v>
       </c>
       <c r="R14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="V14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W14" t="s">
-        <v>185</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="B15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E15" t="s">
         <v>139</v>
@@ -22253,36 +22253,36 @@
         <v>75.278329082476</v>
       </c>
       <c r="R15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="V15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W15" t="s">
-        <v>186</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>187</v>
       </c>
       <c r="B16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E16" t="s">
         <v>140</v>
@@ -22320,36 +22320,36 @@
         <v>76.3196522328234</v>
       </c>
       <c r="R16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="V16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W16" t="s">
-        <v>187</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D17" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E17" t="s">
         <v>140</v>
@@ -22387,36 +22387,36 @@
         <v>75.7737392498981</v>
       </c>
       <c r="R17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U17" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="V17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W17" t="s">
-        <v>188</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>189</v>
       </c>
       <c r="B18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E18" t="s">
         <v>139</v>
@@ -22454,36 +22454,36 @@
         <v>75.9133788801721</v>
       </c>
       <c r="R18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="V18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W18" t="s">
-        <v>189</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>190</v>
       </c>
       <c r="B19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D19" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E19" t="s">
         <v>139</v>
@@ -22521,36 +22521,36 @@
         <v>73.4242260232587</v>
       </c>
       <c r="R19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U19" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="V19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W19" t="s">
-        <v>190</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="B20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E20" t="s">
         <v>140</v>
@@ -22588,36 +22588,36 @@
         <v>75.3219635997129</v>
       </c>
       <c r="R20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S20" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="V20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W20" t="s">
-        <v>191</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>192</v>
       </c>
       <c r="B21" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C21" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E21" t="s">
         <v>140</v>
@@ -22655,36 +22655,36 @@
         <v>77.7462829206135</v>
       </c>
       <c r="R21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T21" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="V21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W21" t="s">
-        <v>192</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="B22" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C22" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E22" t="s">
         <v>139</v>
@@ -22722,36 +22722,36 @@
         <v>77.3230008037153</v>
       </c>
       <c r="R22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T22" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="V22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W22" t="s">
-        <v>194</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="B23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D23" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E23" t="s">
         <v>139</v>
@@ -22789,36 +22789,36 @@
         <v>76.8370342126092</v>
       </c>
       <c r="R23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U23" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="V23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W23" t="s">
-        <v>195</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="B24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D24" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E24" t="s">
         <v>140</v>
@@ -22856,39 +22856,39 @@
         <v>68.026569465875</v>
       </c>
       <c r="R24" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S24" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U24" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="V24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W24" t="s">
-        <v>196</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>197</v>
       </c>
       <c r="B25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C25" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D25" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E25" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -22923,36 +22923,36 @@
         <v>42.66528539731</v>
       </c>
       <c r="R25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T25" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U25" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="V25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W25" t="s">
-        <v>198</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>199</v>
       </c>
       <c r="B26" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C26" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D26" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E26" t="s">
         <v>140</v>
@@ -22990,36 +22990,36 @@
         <v>77.7127063066445</v>
       </c>
       <c r="R26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T26" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U26" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="V26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W26" t="s">
-        <v>199</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="B27" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C27" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D27" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E27" t="s">
         <v>139</v>
@@ -23057,39 +23057,39 @@
         <v>76.5337419429651</v>
       </c>
       <c r="R27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T27" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U27" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="V27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W27" t="s">
-        <v>200</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>201</v>
       </c>
       <c r="B28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -23124,36 +23124,36 @@
         <v>44.8340229519099</v>
       </c>
       <c r="R28" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W28" t="s">
-        <v>202</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>203</v>
       </c>
       <c r="B29" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D29" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E29" t="s">
         <v>139</v>
@@ -23191,36 +23191,36 @@
         <v>77.1585746978647</v>
       </c>
       <c r="R29" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S29" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U29" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="V29" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W29" t="s">
-        <v>203</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>204</v>
       </c>
       <c r="B30" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D30" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E30" t="s">
         <v>140</v>
@@ -23258,36 +23258,36 @@
         <v>73.327768345213</v>
       </c>
       <c r="R30" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S30" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U30" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="V30" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W30" t="s">
-        <v>204</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>205</v>
       </c>
       <c r="B31" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C31" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D31" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E31" t="s">
         <v>140</v>
@@ -23325,39 +23325,39 @@
         <v>78.3042702624516</v>
       </c>
       <c r="R31" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S31" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T31" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U31" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="V31" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W31" t="s">
-        <v>205</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>206</v>
       </c>
       <c r="B32" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D32" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -23392,36 +23392,36 @@
         <v>44.8577044850154</v>
       </c>
       <c r="R32" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S32" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U32" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="V32" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W32" t="s">
-        <v>207</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>208</v>
       </c>
       <c r="B33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C33" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D33" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E33" t="s">
         <v>139</v>
@@ -23459,36 +23459,36 @@
         <v>74.1599804701734</v>
       </c>
       <c r="R33" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S33" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T33" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U33" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V33" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W33" t="s">
-        <v>208</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>209</v>
       </c>
       <c r="B34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C34" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D34" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E34" t="s">
         <v>140</v>
@@ -23526,39 +23526,39 @@
         <v>76.8715139612649</v>
       </c>
       <c r="R34" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S34" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T34" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U34" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V34" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W34" t="s">
-        <v>209</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>210</v>
       </c>
       <c r="B35" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C35" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D35" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E35" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -23593,36 +23593,36 @@
         <v>42.5248447732944</v>
       </c>
       <c r="R35" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S35" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T35" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U35" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="V35" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W35" t="s">
-        <v>211</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>212</v>
       </c>
       <c r="B36" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D36" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E36" t="s">
         <v>140</v>
@@ -23660,36 +23660,36 @@
         <v>71.0180206210001</v>
       </c>
       <c r="R36" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S36" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U36" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V36" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W36" t="s">
-        <v>212</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>213</v>
       </c>
       <c r="B37" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C37" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D37" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E37" t="s">
         <v>139</v>
@@ -23727,39 +23727,39 @@
         <v>73.0375024689149</v>
       </c>
       <c r="R37" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S37" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T37" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U37" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="V37" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W37" t="s">
-        <v>213</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>214</v>
       </c>
       <c r="B38" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C38" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D38" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E38" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -23794,36 +23794,36 @@
         <v>44.035816602982</v>
       </c>
       <c r="R38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S38" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T38" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U38" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V38" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W38" t="s">
-        <v>215</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>216</v>
       </c>
       <c r="B39" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C39" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D39" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E39" t="s">
         <v>140</v>
@@ -23861,36 +23861,36 @@
         <v>72.2744713788624</v>
       </c>
       <c r="R39" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S39" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T39" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U39" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="V39" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W39" t="s">
-        <v>216</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>217</v>
       </c>
       <c r="B40" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C40" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D40" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E40" t="s">
         <v>139</v>
@@ -23928,39 +23928,39 @@
         <v>71.8946904448678</v>
       </c>
       <c r="R40" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S40" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T40" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U40" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="V40" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W40" t="s">
-        <v>217</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>218</v>
       </c>
       <c r="B41" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C41" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D41" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E41" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -23995,36 +23995,36 @@
         <v>45.8747053262072</v>
       </c>
       <c r="R41" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S41" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T41" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U41" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="V41" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W41" t="s">
-        <v>219</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>220</v>
       </c>
       <c r="B42" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C42" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D42" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E42" t="s">
         <v>140</v>
@@ -24062,39 +24062,39 @@
         <v>73.1456640255301</v>
       </c>
       <c r="R42" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S42" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T42" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U42" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="V42" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W42" t="s">
-        <v>220</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>221</v>
       </c>
       <c r="B43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C43" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D43" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E43" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -24129,36 +24129,36 @@
         <v>45.5417327962627</v>
       </c>
       <c r="R43" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S43" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T43" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U43" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="V43" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W43" t="s">
-        <v>222</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>223</v>
       </c>
       <c r="B44" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C44" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D44" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E44" t="s">
         <v>139</v>
@@ -24196,39 +24196,39 @@
         <v>74.473448509429</v>
       </c>
       <c r="R44" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S44" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T44" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U44" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="V44" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W44" t="s">
-        <v>223</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>224</v>
       </c>
       <c r="B45" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C45" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D45" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E45" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -24263,36 +24263,36 @@
         <v>70.5886704062134</v>
       </c>
       <c r="R45" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S45" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T45" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U45" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="V45" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W45" t="s">
-        <v>225</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>226</v>
       </c>
       <c r="B46" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C46" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D46" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E46" t="s">
         <v>140</v>
@@ -24330,36 +24330,36 @@
         <v>65.0034949549924</v>
       </c>
       <c r="R46" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S46" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T46" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U46" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="V46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W46" t="s">
-        <v>226</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>227</v>
       </c>
       <c r="B47" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C47" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D47" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E47" t="s">
         <v>139</v>
@@ -24397,39 +24397,39 @@
         <v>73.9780193650463</v>
       </c>
       <c r="R47" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S47" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T47" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U47" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="V47" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W47" t="s">
-        <v>227</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>228</v>
       </c>
       <c r="B48" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C48" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D48" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E48" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -24464,36 +24464,36 @@
         <v>69.8665492397833</v>
       </c>
       <c r="R48" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S48" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T48" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U48" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="V48" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W48" t="s">
-        <v>229</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>230</v>
       </c>
       <c r="B49" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C49" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D49" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E49" t="s">
         <v>140</v>
@@ -24531,36 +24531,36 @@
         <v>75.4496797126087</v>
       </c>
       <c r="R49" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S49" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T49" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U49" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="V49" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W49" t="s">
-        <v>230</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>231</v>
       </c>
       <c r="B50" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C50" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D50" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E50" t="s">
         <v>139</v>
@@ -24598,39 +24598,39 @@
         <v>71.9599238062952</v>
       </c>
       <c r="R50" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S50" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T50" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U50" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V50" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W50" t="s">
-        <v>231</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>232</v>
       </c>
       <c r="B51" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C51" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D51" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E51" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -24665,36 +24665,36 @@
         <v>70.518084724466</v>
       </c>
       <c r="R51" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S51" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T51" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U51" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="V51" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W51" t="s">
-        <v>233</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>234</v>
       </c>
       <c r="B52" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C52" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E52" t="s">
         <v>139</v>
@@ -24732,36 +24732,36 @@
         <v>76.2237221841348</v>
       </c>
       <c r="R52" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S52" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T52" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U52" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V52" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W52" t="s">
-        <v>234</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>235</v>
       </c>
       <c r="B53" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C53" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D53" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E53" t="s">
         <v>140</v>
@@ -24799,36 +24799,36 @@
         <v>74.8173006337174</v>
       </c>
       <c r="R53" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S53" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T53" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U53" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V53" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W53" t="s">
-        <v>235</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>236</v>
       </c>
       <c r="B54" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C54" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D54" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E54" t="s">
         <v>139</v>
@@ -24866,39 +24866,39 @@
         <v>73.956193684322</v>
       </c>
       <c r="R54" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S54" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T54" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U54" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="V54" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W54" t="s">
-        <v>236</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>237</v>
       </c>
       <c r="B55" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C55" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E55" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
@@ -24933,36 +24933,36 @@
         <v>72.7301617193569</v>
       </c>
       <c r="R55" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S55" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T55" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U55" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="V55" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W55" t="s">
-        <v>238</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>239</v>
       </c>
       <c r="B56" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C56" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D56" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E56" t="s">
         <v>139</v>
@@ -25000,36 +25000,36 @@
         <v>74.0140254432705</v>
       </c>
       <c r="R56" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S56" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T56" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U56" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="V56" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W56" t="s">
-        <v>239</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>240</v>
       </c>
       <c r="B57" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C57" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E57" t="s">
         <v>140</v>
@@ -25067,36 +25067,36 @@
         <v>75.4209286341734</v>
       </c>
       <c r="R57" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S57" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T57" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U57" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="V57" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W57" t="s">
-        <v>240</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>241</v>
       </c>
       <c r="B58" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C58" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D58" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E58" t="s">
         <v>140</v>
@@ -25134,39 +25134,39 @@
         <v>57.6517244100702</v>
       </c>
       <c r="R58" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S58" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T58" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U58" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="V58" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W58" t="s">
-        <v>241</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>242</v>
       </c>
       <c r="B59" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C59" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D59" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E59" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
@@ -25201,36 +25201,36 @@
         <v>69.5373102546162</v>
       </c>
       <c r="R59" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S59" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T59" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U59" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="V59" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W59" t="s">
-        <v>243</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>244</v>
       </c>
       <c r="B60" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C60" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D60" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E60" t="s">
         <v>139</v>
@@ -25268,36 +25268,36 @@
         <v>75.2039357980605</v>
       </c>
       <c r="R60" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S60" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T60" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U60" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="V60" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W60" t="s">
-        <v>244</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>245</v>
       </c>
       <c r="B61" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C61" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D61" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E61" t="s">
         <v>139</v>
@@ -25335,39 +25335,39 @@
         <v>72.4289411769743</v>
       </c>
       <c r="R61" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S61" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T61" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U61" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="V61" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W61" t="s">
-        <v>245</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>246</v>
       </c>
       <c r="B62" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C62" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D62" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E62" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
@@ -25402,39 +25402,39 @@
         <v>72.1864652702854</v>
       </c>
       <c r="R62" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S62" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T62" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U62" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="V62" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W62" t="s">
-        <v>247</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>248</v>
       </c>
       <c r="B63" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C63" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D63" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E63" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
@@ -25469,36 +25469,36 @@
         <v>69.2838245821532</v>
       </c>
       <c r="R63" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S63" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T63" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U63" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="V63" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W63" t="s">
-        <v>249</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>250</v>
       </c>
       <c r="B64" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C64" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D64" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E64" t="s">
         <v>140</v>
@@ -25536,36 +25536,36 @@
         <v>73.8727529196158</v>
       </c>
       <c r="R64" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S64" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T64" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U64" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="V64" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W64" t="s">
-        <v>250</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>251</v>
       </c>
       <c r="B65" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C65" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D65" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E65" t="s">
         <v>140</v>
@@ -25603,36 +25603,36 @@
         <v>74.9960750546059</v>
       </c>
       <c r="R65" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S65" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T65" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U65" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="V65" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W65" t="s">
-        <v>251</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>252</v>
       </c>
       <c r="B66" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C66" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D66" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E66" t="s">
         <v>139</v>
@@ -25670,39 +25670,39 @@
         <v>70.5077500246431</v>
       </c>
       <c r="R66" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S66" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T66" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U66" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="V66" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W66" t="s">
-        <v>252</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>253</v>
       </c>
       <c r="B67" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C67" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D67" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E67" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
@@ -25737,36 +25737,36 @@
         <v>70.6415563223725</v>
       </c>
       <c r="R67" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S67" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T67" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U67" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="V67" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W67" t="s">
-        <v>254</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>255</v>
       </c>
       <c r="B68" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C68" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D68" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E68" t="s">
         <v>139</v>
@@ -25804,36 +25804,36 @@
         <v>74.5352457684665</v>
       </c>
       <c r="R68" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S68" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T68" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U68" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="V68" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W68" t="s">
-        <v>255</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>256</v>
       </c>
       <c r="B69" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C69" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D69" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E69" t="s">
         <v>140</v>
@@ -25871,36 +25871,36 @@
         <v>69.6652794116193</v>
       </c>
       <c r="R69" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S69" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T69" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U69" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="V69" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W69" t="s">
-        <v>256</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>257</v>
       </c>
       <c r="B70" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C70" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D70" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E70" t="s">
         <v>140</v>
@@ -25938,39 +25938,39 @@
         <v>73.9233188120812</v>
       </c>
       <c r="R70" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S70" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T70" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U70" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="V70" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W70" t="s">
-        <v>257</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>258</v>
       </c>
       <c r="B71" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C71" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D71" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E71" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
@@ -26005,36 +26005,36 @@
         <v>70.2855282738095</v>
       </c>
       <c r="R71" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S71" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T71" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U71" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="V71" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W71" t="s">
-        <v>259</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>260</v>
       </c>
       <c r="B72" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C72" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D72" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E72" t="s">
         <v>139</v>
@@ -26072,36 +26072,36 @@
         <v>59.2735996939005</v>
       </c>
       <c r="R72" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S72" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T72" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U72" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="V72" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W72" t="s">
-        <v>260</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>261</v>
       </c>
       <c r="B73" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C73" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D73" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E73" t="s">
         <v>139</v>
@@ -26139,39 +26139,39 @@
         <v>72.7144685227753</v>
       </c>
       <c r="R73" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S73" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T73" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U73" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="V73" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W73" t="s">
-        <v>261</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>262</v>
       </c>
       <c r="B74" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C74" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D74" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E74" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
@@ -26206,36 +26206,36 @@
         <v>69.2634229170326</v>
       </c>
       <c r="R74" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S74" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T74" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U74" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="V74" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W74" t="s">
-        <v>263</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>264</v>
       </c>
       <c r="B75" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C75" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D75" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E75" t="s">
         <v>140</v>
@@ -26273,36 +26273,36 @@
         <v>67.7707459386977</v>
       </c>
       <c r="R75" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S75" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T75" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U75" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="V75" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W75" t="s">
-        <v>264</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>265</v>
       </c>
       <c r="B76" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C76" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D76" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E76" t="s">
         <v>140</v>
@@ -26340,39 +26340,39 @@
         <v>74.9685406154981</v>
       </c>
       <c r="R76" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S76" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T76" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U76" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="V76" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W76" t="s">
-        <v>265</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>266</v>
       </c>
       <c r="B77" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C77" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D77" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E77" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
@@ -26407,36 +26407,36 @@
         <v>70.6833500397498</v>
       </c>
       <c r="R77" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S77" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T77" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U77" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="V77" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W77" t="s">
-        <v>267</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>268</v>
       </c>
       <c r="B78" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C78" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D78" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E78" t="s">
         <v>139</v>
@@ -26474,36 +26474,36 @@
         <v>73.8549072756541</v>
       </c>
       <c r="R78" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S78" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T78" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U78" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="V78" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W78" t="s">
-        <v>268</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>269</v>
       </c>
       <c r="B79" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C79" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D79" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E79" t="s">
         <v>139</v>
@@ -26541,39 +26541,39 @@
         <v>70.6224899379785</v>
       </c>
       <c r="R79" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S79" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T79" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U79" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="V79" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W79" t="s">
-        <v>269</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c r="B80" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C80" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D80" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E80" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -26608,36 +26608,36 @@
         <v>72.2501345094384</v>
       </c>
       <c r="R80" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S80" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T80" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U80" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="V80" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W80" t="s">
-        <v>271</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="B81" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C81" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D81" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E81" t="s">
         <v>140</v>
@@ -26675,36 +26675,36 @@
         <v>68.8778528135395</v>
       </c>
       <c r="R81" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S81" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T81" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U81" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="V81" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W81" t="s">
-        <v>272</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>273</v>
       </c>
       <c r="B82" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C82" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D82" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E82" t="s">
         <v>139</v>
@@ -26742,36 +26742,36 @@
         <v>75.5442272749312</v>
       </c>
       <c r="R82" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S82" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T82" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U82" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="V82" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W82" t="s">
-        <v>273</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>274</v>
       </c>
       <c r="B83" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C83" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D83" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E83" t="s">
         <v>140</v>
@@ -26809,36 +26809,36 @@
         <v>71.7646095192709</v>
       </c>
       <c r="R83" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S83" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T83" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U83" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="V83" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W83" t="s">
-        <v>274</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>275</v>
       </c>
       <c r="B84" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C84" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D84" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E84" t="s">
         <v>139</v>
@@ -26876,36 +26876,36 @@
         <v>71.0311377467273</v>
       </c>
       <c r="R84" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S84" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T84" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U84" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="V84" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W84" t="s">
-        <v>275</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>276</v>
       </c>
       <c r="B85" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C85" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D85" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E85" t="s">
         <v>139</v>
@@ -26943,36 +26943,36 @@
         <v>71.7678543569311</v>
       </c>
       <c r="R85" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S85" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T85" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U85" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="V85" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W85" t="s">
-        <v>276</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>277</v>
       </c>
       <c r="B86" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C86" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D86" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E86" t="s">
         <v>140</v>
@@ -27010,36 +27010,36 @@
         <v>71.2364205043739</v>
       </c>
       <c r="R86" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S86" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T86" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U86" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="V86" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W86" t="s">
-        <v>277</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>278</v>
       </c>
       <c r="B87" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C87" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D87" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E87" t="s">
         <v>140</v>
@@ -27077,36 +27077,36 @@
         <v>70.8755715052635</v>
       </c>
       <c r="R87" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S87" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T87" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U87" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="V87" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W87" t="s">
-        <v>278</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>279</v>
       </c>
       <c r="B88" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C88" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D88" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E88" t="s">
         <v>139</v>
@@ -27144,36 +27144,36 @@
         <v>72.3531821652491</v>
       </c>
       <c r="R88" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S88" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T88" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U88" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="V88" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W88" t="s">
-        <v>279</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>280</v>
       </c>
       <c r="B89" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C89" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D89" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E89" t="s">
         <v>139</v>
@@ -27211,36 +27211,36 @@
         <v>77.0449877233242</v>
       </c>
       <c r="R89" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S89" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T89" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U89" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="V89" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W89" t="s">
-        <v>280</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>281</v>
       </c>
       <c r="B90" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C90" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D90" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E90" t="s">
         <v>140</v>
@@ -27278,36 +27278,36 @@
         <v>72.2347594785535</v>
       </c>
       <c r="R90" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S90" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T90" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U90" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="V90" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W90" t="s">
-        <v>281</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>282</v>
       </c>
       <c r="B91" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C91" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D91" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E91" t="s">
         <v>140</v>
@@ -27345,36 +27345,36 @@
         <v>77.3660063007981</v>
       </c>
       <c r="R91" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S91" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T91" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U91" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="V91" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W91" t="s">
-        <v>282</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>283</v>
       </c>
       <c r="B92" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C92" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D92" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E92" t="s">
         <v>139</v>
@@ -27412,36 +27412,36 @@
         <v>69.5396931370413</v>
       </c>
       <c r="R92" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S92" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T92" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U92" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="V92" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W92" t="s">
-        <v>283</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>284</v>
       </c>
       <c r="B93" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C93" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D93" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E93" t="s">
         <v>139</v>
@@ -27479,36 +27479,36 @@
         <v>77.8672367139097</v>
       </c>
       <c r="R93" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S93" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T93" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U93" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="V93" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W93" t="s">
-        <v>284</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>285</v>
       </c>
       <c r="B94" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C94" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D94" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E94" t="s">
         <v>140</v>
@@ -27546,36 +27546,36 @@
         <v>70.0310594493085</v>
       </c>
       <c r="R94" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S94" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T94" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U94" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="V94" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W94" t="s">
-        <v>285</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>286</v>
       </c>
       <c r="B95" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C95" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D95" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E95" t="s">
         <v>140</v>
@@ -27613,36 +27613,36 @@
         <v>76.9924699748011</v>
       </c>
       <c r="R95" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S95" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T95" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U95" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="V95" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W95" t="s">
-        <v>286</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>287</v>
       </c>
       <c r="B96" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C96" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D96" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E96" t="s">
         <v>139</v>
@@ -27680,36 +27680,36 @@
         <v>71.9104646413319</v>
       </c>
       <c r="R96" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S96" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T96" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U96" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="V96" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W96" t="s">
-        <v>287</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>288</v>
       </c>
       <c r="B97" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C97" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D97" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E97" t="s">
         <v>140</v>
@@ -27747,36 +27747,36 @@
         <v>71.2966142882769</v>
       </c>
       <c r="R97" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S97" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T97" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U97" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="V97" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W97" t="s">
-        <v>288</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>289</v>
       </c>
       <c r="B98" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C98" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D98" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E98" t="s">
         <v>139</v>
@@ -27814,36 +27814,36 @@
         <v>76.9281765480813</v>
       </c>
       <c r="R98" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S98" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T98" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U98" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="V98" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W98" t="s">
-        <v>289</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>290</v>
       </c>
       <c r="B99" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C99" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D99" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E99" t="s">
         <v>140</v>
@@ -27881,36 +27881,36 @@
         <v>74.3984269318198</v>
       </c>
       <c r="R99" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S99" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T99" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U99" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="V99" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W99" t="s">
-        <v>290</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>291</v>
       </c>
       <c r="B100" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C100" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D100" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E100" t="s">
         <v>139</v>
@@ -27948,36 +27948,36 @@
         <v>70.7719572433168</v>
       </c>
       <c r="R100" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S100" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T100" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U100" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="V100" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W100" t="s">
-        <v>291</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>292</v>
       </c>
       <c r="B101" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C101" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D101" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E101" t="s">
         <v>140</v>
@@ -28015,36 +28015,36 @@
         <v>71.486091988285</v>
       </c>
       <c r="R101" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S101" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T101" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U101" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="V101" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W101" t="s">
-        <v>292</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>293</v>
       </c>
       <c r="B102" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C102" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D102" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E102" t="s">
         <v>139</v>
@@ -28082,36 +28082,36 @@
         <v>71.4664235448303</v>
       </c>
       <c r="R102" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S102" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T102" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U102" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="V102" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W102" t="s">
-        <v>293</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>102</v>
+        <v>294</v>
       </c>
       <c r="B103" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C103" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D103" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E103" t="s">
         <v>140</v>
@@ -28149,36 +28149,36 @@
         <v>75.3797250022751</v>
       </c>
       <c r="R103" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S103" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T103" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U103" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="V103" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W103" t="s">
-        <v>294</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>103</v>
+        <v>295</v>
       </c>
       <c r="B104" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C104" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D104" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E104" t="s">
         <v>139</v>
@@ -28216,36 +28216,36 @@
         <v>69.1107627145795</v>
       </c>
       <c r="R104" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S104" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T104" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U104" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="V104" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W104" t="s">
-        <v>295</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>296</v>
       </c>
       <c r="B105" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C105" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D105" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E105" t="s">
         <v>140</v>
@@ -28283,36 +28283,36 @@
         <v>71.7875588490208</v>
       </c>
       <c r="R105" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S105" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T105" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U105" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="V105" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W105" t="s">
-        <v>296</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>105</v>
+        <v>297</v>
       </c>
       <c r="B106" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C106" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D106" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E106" t="s">
         <v>139</v>
@@ -28350,36 +28350,36 @@
         <v>71.3919371041712</v>
       </c>
       <c r="R106" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S106" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T106" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U106" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="V106" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W106" t="s">
-        <v>297</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>298</v>
       </c>
       <c r="B107" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C107" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D107" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E107" t="s">
         <v>140</v>
@@ -28417,36 +28417,36 @@
         <v>76.3159609313455</v>
       </c>
       <c r="R107" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S107" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T107" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U107" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="V107" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W107" t="s">
-        <v>298</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>299</v>
       </c>
       <c r="B108" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C108" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D108" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E108" t="s">
         <v>140</v>
@@ -28484,36 +28484,36 @@
         <v>72.1021326969883</v>
       </c>
       <c r="R108" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S108" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T108" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U108" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="V108" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W108" t="s">
-        <v>299</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>108</v>
+        <v>300</v>
       </c>
       <c r="B109" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C109" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D109" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E109" t="s">
         <v>139</v>
@@ -28551,36 +28551,36 @@
         <v>73.5924787952224</v>
       </c>
       <c r="R109" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S109" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T109" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U109" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="V109" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W109" t="s">
-        <v>300</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>301</v>
       </c>
       <c r="B110" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C110" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D110" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E110" t="s">
         <v>139</v>
@@ -28618,36 +28618,36 @@
         <v>71.4329144385882</v>
       </c>
       <c r="R110" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S110" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T110" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U110" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="V110" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W110" t="s">
-        <v>301</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>302</v>
       </c>
       <c r="B111" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C111" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D111" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E111" t="s">
         <v>140</v>
@@ -28685,36 +28685,36 @@
         <v>74.2674417092194</v>
       </c>
       <c r="R111" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S111" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T111" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U111" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="V111" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W111" t="s">
-        <v>302</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>303</v>
       </c>
       <c r="B112" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C112" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D112" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E112" t="s">
         <v>140</v>
@@ -28752,36 +28752,36 @@
         <v>72.4519634390356</v>
       </c>
       <c r="R112" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S112" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T112" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U112" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="V112" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W112" t="s">
-        <v>303</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>304</v>
       </c>
       <c r="B113" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C113" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D113" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E113" t="s">
         <v>139</v>
@@ -28819,36 +28819,36 @@
         <v>78.068639668499</v>
       </c>
       <c r="R113" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S113" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T113" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U113" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="V113" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W113" t="s">
-        <v>304</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>305</v>
       </c>
       <c r="B114" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C114" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D114" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E114" t="s">
         <v>139</v>
@@ -28886,36 +28886,36 @@
         <v>68.1257378655472</v>
       </c>
       <c r="R114" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S114" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T114" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U114" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="V114" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W114" t="s">
-        <v>305</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>306</v>
       </c>
       <c r="B115" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C115" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D115" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E115" t="s">
         <v>140</v>
@@ -28953,36 +28953,36 @@
         <v>75.4528573492661</v>
       </c>
       <c r="R115" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S115" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T115" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U115" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="V115" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W115" t="s">
-        <v>306</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>115</v>
+        <v>307</v>
       </c>
       <c r="B116" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C116" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D116" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E116" t="s">
         <v>140</v>
@@ -29020,22 +29020,22 @@
         <v>73.4596860164207</v>
       </c>
       <c r="R116" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S116" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T116" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U116" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="V116" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W116" t="s">
-        <v>307</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
